--- a/data/trans_dic/P23_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo</t>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>19,1%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,93%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>18,79%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,74%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,06%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>16,58%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17,36%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>18,94%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 23,1</t>
+          <t>13,78; 20,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 19,52</t>
+          <t>13,12; 20,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 21,03</t>
+          <t>13,37; 20,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 22,42</t>
+          <t>14,15; 22,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,89</t>
+          <t>16,38; 22,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,28</t>
+          <t>19,03; 26,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 18,78</t>
+          <t>15,26; 20,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 21,75</t>
+          <t>14,37; 19,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,23</t>
+          <t>13,98; 18,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,34</t>
+          <t>16,32; 22,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 18,79</t>
+          <t>15,99; 21,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 21,12</t>
+          <t>19,34; 25,26</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 19,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 18,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 18,68</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 21,42</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 21,13</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19,99; 24,31</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>17,37%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>19,62%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>20,31%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,4%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>14,54%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 20,04</t>
+          <t>12,93; 20,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 18,59</t>
+          <t>11,55; 18,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 19,68</t>
+          <t>11,58; 19,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,7</t>
+          <t>12,54; 19,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 23,54</t>
+          <t>12,93; 23,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,64</t>
+          <t>14,67; 25,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 17,07</t>
+          <t>16,71; 24,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,87; 26,84</t>
+          <t>15,02; 21,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,92</t>
+          <t>11,68; 17,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 19,18</t>
+          <t>14,21; 21,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,2</t>
+          <t>15,43; 26,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 22,89</t>
+          <t>13,82; 25,49</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 21,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 19,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 17,31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 19,41</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 22,67</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 23,52</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>15,11%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>13,15%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,82%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,51</t>
+          <t>12,97; 28,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 22,09</t>
+          <t>9,94; 22,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 22,35</t>
+          <t>9,94; 21,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>14,35; 31,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 21,26</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 21,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 16,25</t>
+          <t>10,02; 23,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>10,39; 21,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 16,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 22,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>12,5; 22,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>11,58; 19,8</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,65; 17,47</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 22,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 19,28</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 17,29</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 23,45</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>18,68%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>18,28%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>19,11%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,38%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>18,9%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 20,39</t>
+          <t>14,65; 19,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,34</t>
+          <t>13,24; 18,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,4</t>
+          <t>13,64; 18,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 21,35</t>
+          <t>15,44; 20,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,55</t>
+          <t>16,22; 21,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,12</t>
+          <t>19,15; 24,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 16,68</t>
+          <t>16,76; 21,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 21,84</t>
+          <t>15,31; 19,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 19,54</t>
+          <t>13,27; 16,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 17,53</t>
+          <t>15,91; 20,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 17,03</t>
+          <t>16,67; 21,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 20,8</t>
+          <t>18,84; 23,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 19,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 17,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 16,83</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 19,72</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 20,72</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19,58; 23,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,65%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>264157</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>257404</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>273854</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>288142</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41981</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49138</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>314461</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>301159</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>289864</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>337667</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43742</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51170</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>578618</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>558563</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>563718</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>625810</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>85723</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>100309</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>217765; 330737</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>208659; 331313</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>217802; 331582</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>224634; 350443</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35992; 48802</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41655; 57206</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>267521; 365907</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>258047; 348734</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>248631; 335748</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>282774; 394259</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37223; 49908</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44835; 58560</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>510384; 663895</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>489270; 637722</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>498247; 636804</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>544938; 711111</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>76084; 95601</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>90092; 109568</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>215492</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>194007</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>198807</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>215293</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12329</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14183</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>279750</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>245684</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>191708</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>234829</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12435</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>495242</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>439691</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>390514</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>450122</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>24972</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>26619</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>170458; 269210</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>153369; 249354</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>154294; 254227</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>169793; 268736</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9181; 16369</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10546; 18105</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>228391; 336359</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>202606; 290414</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>157238; 233365</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>188198; 288149</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9608; 16206</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9158; 16891</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>426808; 569292</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>377475; 508466</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>337064; 463591</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>381291; 519968</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>20193; 30201</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>21874; 32494</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79481</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57451</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63236</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>86133</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61210</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61560</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45083</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>140691</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>119011</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>108319</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>142236</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52590; 115302</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38496; 85233</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40751; 90129</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58187; 125742</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38499; 88730</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41703; 85512</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27065; 65364</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34587; 89858</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>104228; 181208</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>91530; 152042</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>78464; 140421</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>103802; 189326</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>559131</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>508862</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>535897</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>589568</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>54310</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63322</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>655420</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>608403</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>526655</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>628600</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56386</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63606</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1214551</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1117265</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1062551</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1218168</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>110696</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>126928</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>484037; 636827</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>437726; 611127</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>459971; 632676</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>516750; 685808</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47178; 62057</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>55659; 72605</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>587169; 741970</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>542871; 675987</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>468201; 593330</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>550319; 713308</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49184; 63993</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56168; 71484</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1106690; 1329230</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1023716; 1230728</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>962961; 1161247</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1103119; 1341959</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>100281; 121360</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>115275; 138619</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
